--- a/ApiDataBase/AutoGenCode.xlsx
+++ b/ApiDataBase/AutoGenCode.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkspaceDDigital\LSM7002MNiosProject\ApiDataBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{0EB0BED4-7ED1-47D4-B359-692F785A1738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="bydtatype" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="bydtatype" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">bydtatype!$A$1:$O$94</definedName>
-    <definedName function="false" hidden="false" name="_xlfn_BITLSHIFT" vbProcedure="false"/>
-    <definedName function="false" hidden="false" name="_xlfn_BITOR" vbProcedure="false"/>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bydtatype!$A$1:$O$94</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -27,55 +42,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="238">
   <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GROUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEX OPCODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QT Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P0_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typedef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_create</t>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Callback</t>
+  </si>
+  <si>
+    <t>API Description</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>HEX OPCODE</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>Group Description</t>
+  </si>
+  <si>
+    <t>QT Label</t>
+  </si>
+  <si>
+    <t>P0_t</t>
+  </si>
+  <si>
+    <t>P1_t</t>
+  </si>
+  <si>
+    <t>P2_t</t>
+  </si>
+  <si>
+    <t>P3_t</t>
+  </si>
+  <si>
+    <t>P4_t</t>
+  </si>
+  <si>
+    <t>P5_t</t>
+  </si>
+  <si>
+    <t>Return_t</t>
+  </si>
+  <si>
+    <t>Typedef</t>
+  </si>
+  <si>
+    <t>LMS7002M_create</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -85,28 +100,28 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">CREATE_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a new configuration or instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_spi_transact_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_t*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">****</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_regs</t>
+    <t>CREATE_NUM</t>
+  </si>
+  <si>
+    <t>Create a new configuration or instance</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>LMS7002M_spi_transact_t</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>LMS7002M_t*</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>LMS7002M_regs</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -114,22 +129,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ONE_PARAM_LMS7002M_T_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation involving one LMS7002M parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_t *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_destroy</t>
+    <t>ONE_PARAM_LMS7002M_T_NUM</t>
+  </si>
+  <si>
+    <t>Operation involving one LMS7002M parameter</t>
+  </si>
+  <si>
+    <t>Regs</t>
+  </si>
+  <si>
+    <t>LMS7002M_t *</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>LMS7002M_destroy</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -140,7 +155,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_regs_to_rfic</t>
+    <t>LMS7002M_regs_to_rfic</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -148,7 +163,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_rfic_to_regs</t>
+    <t>LMS7002M_rfic_to_regs</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -156,7 +171,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_reset</t>
+    <t>LMS7002M_reset</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -165,10 +180,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_power_down</t>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>LMS7002M_power_down</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -177,7 +192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_setup_digital_loopback</t>
+    <t>LMS7002M_setup_digital_loopback</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -187,10 +202,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">loopback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_spi_write</t>
+    <t>loopback</t>
+  </si>
+  <si>
+    <t>LMS7002M_spi_write</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -200,34 +215,34 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SPI_WRITE_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI write operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI</t>
+    <t>SPI_WRITE_NUM</t>
+  </si>
+  <si>
+    <t>SPI write operation</t>
+  </si>
+  <si>
+    <t>SPI</t>
   </si>
   <si>
     <t xml:space="preserve"> const int </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_spi_read</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI_CONFIG_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI configuration operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_regs_spi_write</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_regs_spi_read</t>
+    <t>LMS7002M_spi_read</t>
+  </si>
+  <si>
+    <t>SPI_CONFIG_NUM</t>
+  </si>
+  <si>
+    <t>SPI configuration operation</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>LMS7002M_regs_spi_write</t>
+  </si>
+  <si>
+    <t>LMS7002M_regs_spi_read</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -237,7 +252,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_set_spi_mode</t>
+    <t>LMS7002M_set_spi_mode</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -246,7 +261,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_dump_ini</t>
+    <t>LMS7002M_dump_ini</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -254,26 +269,26 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">INI_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initialization operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INI</t>
+    <t>INI_NUM</t>
+  </si>
+  <si>
+    <t>Initialization operation</t>
+  </si>
+  <si>
+    <t>INI</t>
   </si>
   <si>
     <t xml:space="preserve"> const char *</t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_load_ini</t>
+    <t>LMS7002M_load_ini</t>
   </si>
   <si>
     <t xml:space="preserve">
 Load registers from an INI format like the one used by the EVB7 GUI.</t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_configure_lml_port</t>
+    <t>LMS7002M_configure_lml_port</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -286,10 +301,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">CONFIGURE_LML_PORT_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure the LML port.</t>
+    <t>CONFIGURE_LML_PORT_NUM</t>
+  </si>
+  <si>
+    <t>Configure the LML port.</t>
   </si>
   <si>
     <t xml:space="preserve"> const LMS7002M_port_t </t>
@@ -298,26 +313,26 @@
     <t xml:space="preserve"> const LMS7002M_dir_t </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_invert_fclk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invert the feedback clock used with the transmit pins.
+    <t>LMS7002M_invert_fclk</t>
+  </si>
+  <si>
+    <t>Invert the feedback clock used with the transmit pins.
 This call inverts both FCLK1 and FCLK2 (only one of which is used).</t>
   </si>
   <si>
-    <t xml:space="preserve">ONE_PARAM_CONST_BOOL_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation with a single constant boolean parameter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
+    <t>ONE_PARAM_CONST_BOOL_NUM</t>
+  </si>
+  <si>
+    <t>Operation with a single constant boolean parameter.</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t xml:space="preserve"> const bool </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_xbuf_share_tx</t>
+    <t>LMS7002M_xbuf_share_tx</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -326,10 +341,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">BUFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_xbuf_enable_bias</t>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>LMS7002M_xbuf_enable_bias</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -338,7 +353,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_sxt_to_sxr</t>
+    <t>LMS7002M_sxt_to_sxr</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -348,7 +363,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_reset_lml_fifo</t>
+    <t>LMS7002M_reset_lml_fifo</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -357,13 +372,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ONE_PARAM_LMS7002M_CHAN_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation involving one LMS7002M channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_set_mac_dir</t>
+    <t>ONE_PARAM_LMS7002M_CHAN_NUM</t>
+  </si>
+  <si>
+    <t>Operation involving one LMS7002M channel</t>
+  </si>
+  <si>
+    <t>LMS7002M_set_mac_dir</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -374,10 +389,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">MAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_set_mac_ch</t>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>LMS7002M_set_mac_ch</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -387,10 +402,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">const LMS7002M_chan_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_txtsp_tsg_tone</t>
+    <t>const LMS7002M_chan_t</t>
+  </si>
+  <si>
+    <t>LMS7002M_txtsp_tsg_tone</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -399,19 +414,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Enable Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_rxtsp_tsg_tone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rx_cal_init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx_cal_init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_set_diq_mux</t>
+    <t>Enable Channel</t>
+  </si>
+  <si>
+    <t>LMS7002M_rxtsp_tsg_tone</t>
+  </si>
+  <si>
+    <t>rx_cal_init</t>
+  </si>
+  <si>
+    <t>tx_cal_init</t>
+  </si>
+  <si>
+    <t>LMS7002M_set_diq_mux</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -419,16 +434,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TWO_PARAM_LMS7002M_DIR_INT_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation involving LMS7002M direction and an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_ldo_enable</t>
+    <t>TWO_PARAM_LMS7002M_DIR_INT_NUM</t>
+  </si>
+  <si>
+    <t>Operation involving LMS7002M direction and an integer</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>LMS7002M_ldo_enable</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -436,16 +451,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LDO_ENABLE_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable/disable Low-Dropout (LDO) regulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_afe_enable</t>
+    <t>LDO_ENABLE_NUM</t>
+  </si>
+  <si>
+    <t>Enable/disable Low-Dropout (LDO) regulator</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>LMS7002M_afe_enable</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -454,7 +469,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">AFE_ENABLE_NUM</t>
+    <t>AFE_ENABLE_NUM</t>
   </si>
   <si>
     <t xml:space="preserve">Enable/disable the Analog Front End (AFE). </t>
@@ -463,7 +478,7 @@
     <t xml:space="preserve"> const LMS7002M_chan_t </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_set_data_clock</t>
+    <t>LMS7002M_set_data_clock</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -474,13 +489,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SET_DATA_CLOCK_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set the data clock configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling</t>
+    <t>SET_DATA_CLOCK_NUM</t>
+  </si>
+  <si>
+    <t>Set the data clock configuration</t>
+  </si>
+  <si>
+    <t>Sampling</t>
   </si>
   <si>
     <t xml:space="preserve"> const double </t>
@@ -489,7 +504,7 @@
     <t xml:space="preserve"> double *</t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_set_nco_freq</t>
+    <t>LMS7002M_set_nco_freq</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -500,16 +515,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SET_NCO_FREQ_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set the Numerically Controlled Oscillator (NCO) frequency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency Tunning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_set_gfir_taps</t>
+    <t>SET_NCO_FREQ_NUM</t>
+  </si>
+  <si>
+    <t>Set the Numerically Controlled Oscillator (NCO) frequency.</t>
+  </si>
+  <si>
+    <t>Frequency Tunning</t>
+  </si>
+  <si>
+    <t>LMS7002M_set_gfir_taps</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -523,16 +538,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SET_GFIR_TAPS_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set the number of taps for the GFIR filter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_set_lo_freq</t>
+    <t>SET_GFIR_TAPS_NUM</t>
+  </si>
+  <si>
+    <t>Set the number of taps for the GFIR filter.</t>
+  </si>
+  <si>
+    <t>FIR</t>
+  </si>
+  <si>
+    <t>LMS7002M_set_lo_freq</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -543,13 +558,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SET_LO_FREQ_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">et the Local Oscillator (LO) frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_sxx_enable</t>
+    <t>SET_LO_FREQ_NUM</t>
+  </si>
+  <si>
+    <t>et the Local Oscillator (LO) frequency</t>
+  </si>
+  <si>
+    <t>LMS7002M_sxx_enable</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -557,13 +572,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TWO_PARAM_LMS_CONST_BOOL_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation involving an LMS7002M parameter and a constant boolean.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_txtsp_enable</t>
+    <t>TWO_PARAM_LMS_CONST_BOOL_NUM</t>
+  </si>
+  <si>
+    <t>Operation involving an LMS7002M parameter and a constant boolean.</t>
+  </si>
+  <si>
+    <t>LMS7002M_txtsp_enable</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -573,7 +588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_tbb_enable</t>
+    <t>LMS7002M_tbb_enable</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -581,27 +596,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_trf_enable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable/disable the TX RF frontend.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_trf_enable_loopback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable/disable the TX RF loopback to RFE.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_rxtsp_enable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initialize the RX TSP chain by:
+    <t>LMS7002M_trf_enable</t>
+  </si>
+  <si>
+    <t>Enable/disable the TX RF frontend.</t>
+  </si>
+  <si>
+    <t>LMS7002M_trf_enable_loopback</t>
+  </si>
+  <si>
+    <t>Enable/disable the TX RF loopback to RFE.</t>
+  </si>
+  <si>
+    <t>LMS7002M_rxtsp_enable</t>
+  </si>
+  <si>
+    <t>Initialize the RX TSP chain by:
 Clearing configuration values, enabling the chain,
 and bypassing IQ gain, phase, DC corrections, filters, and AGC.</t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_rbb_enable</t>
+    <t>LMS7002M_rbb_enable</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -609,7 +624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_rbb_set_test_out</t>
+    <t>LMS7002M_rbb_set_test_out</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -618,10 +633,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_rfe_enable</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>LMS7002M_rfe_enable</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -629,7 +644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_txtsp_set_interp</t>
+    <t>LMS7002M_txtsp_set_interp</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -637,16 +652,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TWO_PARAM_CHANT_SIZET_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation involving a channel and a size parameter</t>
+    <t>TWO_PARAM_CHANT_SIZET_NUM</t>
+  </si>
+  <si>
+    <t>Operation involving a channel and a size parameter</t>
   </si>
   <si>
     <t xml:space="preserve"> const size_t </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_rxtsp_set_decim</t>
+    <t>LMS7002M_rxtsp_set_decim</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -654,7 +669,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_txtsp_tsg_const</t>
+    <t>LMS7002M_txtsp_tsg_const</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -663,13 +678,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SP_TSG_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special operation (possibly related to test signal generation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_rxtsp_tsg_const</t>
+    <t>SP_TSG_NUM</t>
+  </si>
+  <si>
+    <t>Special operation (possibly related to test signal generation)</t>
+  </si>
+  <si>
+    <t>LMS7002M_rxtsp_tsg_const</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -678,7 +693,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_txtsp_set_dc_correction</t>
+    <t>LMS7002M_txtsp_set_dc_correction</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -687,19 +702,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TXSTP_CORRECTION_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct the TX start/stop timing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">const double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_txtsp_set_iq_correction</t>
+    <t>TXSTP_CORRECTION_NUM</t>
+  </si>
+  <si>
+    <t>Correct the TX start/stop timing</t>
+  </si>
+  <si>
+    <t>Calibrate</t>
+  </si>
+  <si>
+    <t>const double</t>
+  </si>
+  <si>
+    <t>LMS7002M_txtsp_set_iq_correction</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -712,22 +727,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_rxtsp_set_dc_correction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RXTSP_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation related to RX TSP (test signal processing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">const bool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">const int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_rxtsp_set_iq_correction</t>
+    <t>LMS7002M_rxtsp_set_dc_correction</t>
+  </si>
+  <si>
+    <t>RXTSP_NUM</t>
+  </si>
+  <si>
+    <t>Operation related to RX TSP (test signal processing)</t>
+  </si>
+  <si>
+    <t>const bool</t>
+  </si>
+  <si>
+    <t>const int</t>
+  </si>
+  <si>
+    <t>LMS7002M_rxtsp_set_iq_correction</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -740,7 +755,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_tbb_set_path</t>
+    <t>LMS7002M_tbb_set_path</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -751,16 +766,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SET_PATH_AND_BAND_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set the signal path and band configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Band</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_tbb_set_test_in</t>
+    <t>SET_PATH_AND_BAND_NUM</t>
+  </si>
+  <si>
+    <t>Set the signal path and band configuration</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>LMS7002M_tbb_set_test_in</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -769,7 +784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_trf_select_band</t>
+    <t>LMS7002M_trf_select_band</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -777,7 +792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_rbb_set_path</t>
+    <t>LMS7002M_rbb_set_path</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -788,7 +803,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_rfe_set_path</t>
+    <t>LMS7002M_rfe_set_path</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -796,7 +811,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_tbb_enable_loopback</t>
+    <t>LMS7002M_tbb_enable_loopback</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -804,13 +819,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TBB_LOOP_BACK_ENABLE_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable/disable loopback on the TBB (transceiver baseband)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_tbb_set_filter_bw</t>
+    <t>TBB_LOOP_BACK_ENABLE_NUM</t>
+  </si>
+  <si>
+    <t>Enable/disable loopback on the TBB (transceiver baseband)</t>
+  </si>
+  <si>
+    <t>LMS7002M_tbb_set_filter_bw</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -819,13 +834,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">BB_FILER_SET_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure the baseband filter parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_rbb_set_filter_bw</t>
+    <t>BB_FILER_SET_NUM</t>
+  </si>
+  <si>
+    <t>Configure the baseband filter parameters</t>
+  </si>
+  <si>
+    <t>LMS7002M_rbb_set_filter_bw</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -834,7 +849,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_txtsp_set_freq</t>
+    <t>LMS7002M_txtsp_set_freq</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -843,13 +858,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TRF_RBB_RFE_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation related to TRF, RBB, or RFE configurations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_rxtsp_set_freq</t>
+    <t>TRF_RBB_RFE_NUM</t>
+  </si>
+  <si>
+    <t>Operation related to TRF, RBB, or RFE configurations</t>
+  </si>
+  <si>
+    <t>LMS7002M_rxtsp_set_freq</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -858,7 +873,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_trf_set_pad</t>
+    <t>LMS7002M_trf_set_pad</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -866,13 +881,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Gain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS7002M_trf_set_loopback_pad</t>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>LMS7002M_trf_set_loopback_pad</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -880,7 +895,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_rbb_set_pga</t>
+    <t>LMS7002M_rbb_set_pga</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -888,7 +903,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_rfe_set_lna</t>
+    <t>LMS7002M_rfe_set_lna</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -896,7 +911,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_rfe_set_loopback_lna</t>
+    <t>LMS7002M_rfe_set_loopback_lna</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -904,7 +919,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_rfe_set_tia</t>
+    <t>LMS7002M_rfe_set_tia</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -912,7 +927,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LMS7002M_rxtsp_read_rssi</t>
+    <t>LMS7002M_rxtsp_read_rssi</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -920,27 +935,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">READRSSI_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read the Received Signal Strength Indicator (RSSI).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint16_t</t>
+    <t>READRSSI_NUM</t>
+  </si>
+  <si>
+    <t>Read the Received Signal Strength Indicator (RSSI).</t>
+  </si>
+  <si>
+    <t>RSSI</t>
+  </si>
+  <si>
+    <t>uint16_t</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -948,22 +959,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -997,7 +993,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1005,122 +1001,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3465A4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE0EFD4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1179,66 +1101,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1291,112 +1225,111 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="36.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="22.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="34.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="66.79"/>
+    <col min="1" max="1" width="4.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="36.453125" customWidth="1"/>
+    <col min="7" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="27.81640625" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" customWidth="1"/>
+    <col min="11" max="11" width="34.08984375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="66.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-    </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A2,5),D2))</f>
+      <c r="E2" s="5" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A2,5),D2))</f>
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1423,53 +1356,53 @@
       <c r="O2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O2," ",LOWER(F2), "_",  SUBSTITUTE(LOWER(H2) , " ", "_") ,"(", I2 ,");")</f>
+      <c r="P2" t="str">
+        <f>CONCATENATE("typedef ",O2," ",LOWER(F2), "_",  SUBSTITUTE(LOWER(H2), " ", "_"),"(", I2,");")</f>
         <v>typedef LMS7002M_t* create_num_internal(LMS7002M_spi_transact_t);</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="J3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="3" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" ht="50" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A4,5),D4))</f>
+        <f t="shared" ref="E4:E10" si="0">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A4,5),D4))</f>
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1481,7 +1414,7 @@
       <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1502,26 +1435,26 @@
       <c r="O4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O4," ",LOWER(F4), "_",  SUBSTITUTE(LOWER(H4) , " ", "_") ,"(", I4 ,");")</f>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P10" si="1">CONCATENATE("typedef ",O4," ",LOWER(F4), "_",  SUBSTITUTE(LOWER(H4), " ", "_"),"(", I4,");")</f>
         <v>typedef void one_param_lms7002m_t_num_regs(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:20" ht="100" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A5,5),D5))</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1533,7 +1466,7 @@
       <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1554,26 +1487,26 @@
       <c r="O5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O5," ",LOWER(F5), "_",  SUBSTITUTE(LOWER(H5) , " ", "_") ,"(", I5 ,");")</f>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
         <v>typedef void one_param_lms7002m_t_num_internal(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:20" ht="50" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A6,5),D6))</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1585,7 +1518,7 @@
       <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1606,26 +1539,26 @@
       <c r="O6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O6," ",LOWER(F6), "_",  SUBSTITUTE(LOWER(H6) , " ", "_") ,"(", I6 ,");")</f>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
         <v>typedef void one_param_lms7002m_t_num_regs(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:20" ht="50" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A7,5),D7))</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1637,7 +1570,7 @@
       <c r="H7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1658,26 +1591,26 @@
       <c r="O7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O7," ",LOWER(F7), "_",  SUBSTITUTE(LOWER(H7) , " ", "_") ,"(", I7 ,");")</f>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
         <v>typedef void one_param_lms7002m_t_num_regs(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:20" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A8,5),D8))</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1689,7 +1622,7 @@
       <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1710,26 +1643,26 @@
       <c r="O8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O8," ",LOWER(F8), "_",  SUBSTITUTE(LOWER(H8) , " ", "_") ,"(", I8 ,");")</f>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
         <v>typedef void one_param_lms7002m_t_num_power(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A9,5),D9))</f>
+        <f t="shared" si="0"/>
         <v>A1</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1741,7 +1674,7 @@
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1762,26 +1695,26 @@
       <c r="O9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O9," ",LOWER(F9), "_",  SUBSTITUTE(LOWER(H9) , " ", "_") ,"(", I9 ,");")</f>
+      <c r="P9" t="str">
+        <f t="shared" si="1"/>
         <v>typedef void one_param_lms7002m_t_num_power(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:20" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A10,5),D10))</f>
+        <f t="shared" si="0"/>
         <v>C1</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1793,7 +1726,7 @@
       <c r="H10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1814,66 +1747,66 @@
       <c r="O10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O10," ",LOWER(F10), "_",  SUBSTITUTE(LOWER(H10) , " ", "_") ,"(", I10 ,");")</f>
+      <c r="P10" t="str">
+        <f t="shared" si="1"/>
         <v>typedef void one_param_lms7002m_t_num_loopback(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="11" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="J11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="11" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:20" ht="100" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A12,5),D12))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A12,5),D12))</f>
         <v>2</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1894,66 +1827,66 @@
       <c r="O12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O12," ",LOWER(F12), "_",  SUBSTITUTE(LOWER(H12) , " ", "_") ,"(", I12 ,");")</f>
+      <c r="P12" t="str">
+        <f>CONCATENATE("typedef ",O12," ",LOWER(F12), "_",  SUBSTITUTE(LOWER(H12), " ", "_"),"(", I12,");")</f>
         <v>typedef void spi_write_num_spi(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="J13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="13" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:20" ht="100" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A14,5),D14))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A14,5),D14))</f>
         <v>3</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>54</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1974,38 +1907,38 @@
       <c r="O14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O14," ",LOWER(F14), "_",  SUBSTITUTE(LOWER(H14) , " ", "_") ,"(", I14 ,");")</f>
+      <c r="P14" t="str">
+        <f t="shared" ref="P14:P20" si="2">CONCATENATE("typedef ",O14," ",LOWER(F14), "_",  SUBSTITUTE(LOWER(H14), " ", "_"),"(", I14,");")</f>
         <v>typedef int spi_config_num_spi(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:20" ht="100" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A15,5),D15))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A15,5),D15))</f>
         <v>23</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -2026,38 +1959,38 @@
       <c r="O15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O15," ",LOWER(F15), "_",  SUBSTITUTE(LOWER(H15) , " ", "_") ,"(", I15 ,");")</f>
+      <c r="P15" t="str">
+        <f t="shared" si="2"/>
         <v>typedef void spi_config_num_spi(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:20" ht="100" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A16,5),D16))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A16,5),D16))</f>
         <v>43</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>54</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -2078,38 +2011,38 @@
       <c r="O16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O16," ",LOWER(F16), "_",  SUBSTITUTE(LOWER(H16) , " ", "_") ,"(", I16 ,");")</f>
+      <c r="P16" t="str">
+        <f t="shared" si="2"/>
         <v>typedef void spi_config_num_spi(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A17,5),D17))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A17,5),D17))</f>
         <v>63</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>54</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -2130,69 +2063,69 @@
       <c r="O17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O17," ",LOWER(F17), "_",  SUBSTITUTE(LOWER(H17) , " ", "_") ,"(", I17 ,");")</f>
+      <c r="P17" t="str">
+        <f t="shared" si="2"/>
         <v>typedef void spi_config_num_spi(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="18" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="J18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O18," ",LOWER(F18), "_",  SUBSTITUTE(LOWER(H18) , " ", "_") ,"(", I18 ,");")</f>
+    <row r="18" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" t="str">
+        <f t="shared" si="2"/>
         <v>typedef  _();</v>
       </c>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="1">
         <v>4</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A19,5),D19))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A19,5),D19))</f>
         <v>4</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -2213,38 +2146,38 @@
       <c r="O19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O19," ",LOWER(F19), "_",  SUBSTITUTE(LOWER(H19) , " ", "_") ,"(", I19 ,");")</f>
+      <c r="P19" t="str">
+        <f t="shared" si="2"/>
         <v>typedef int ini_num_ini(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="1">
         <v>4</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A20,5),D20))</f>
-        <v>24</v>
-      </c>
-      <c r="F20" s="8" t="s">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A20,5),D20))</f>
+        <v>24</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -2265,66 +2198,66 @@
       <c r="O20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O20," ",LOWER(F20), "_",  SUBSTITUTE(LOWER(H20) , " ", "_") ,"(", I20 ,");")</f>
+      <c r="P20" t="str">
+        <f t="shared" si="2"/>
         <v>typedef int ini_num_ini(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="J21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="157.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="21" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="J21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="1:17" ht="175" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="1">
         <v>5</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A22,5),D22))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A22,5),D22))</f>
         <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="6" t="s">
         <v>72</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -2345,66 +2278,66 @@
       <c r="O22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O22," ",LOWER(F22), "_",  SUBSTITUTE(LOWER(H22) , " ", "_") ,"(", I22 ,");")</f>
+      <c r="P22" t="str">
+        <f>CONCATENATE("typedef ",O22," ",LOWER(F22), "_",  SUBSTITUTE(LOWER(H22), " ", "_"),"(", I22,");")</f>
         <v>typedef void configure_lml_port_num_loopback(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="23" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="J23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="23" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="J23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="1">
         <v>6</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A24,5),D24))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A24,5),D24))</f>
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -2425,38 +2358,38 @@
       <c r="O24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P24" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O24," ",LOWER(F24), "_",  SUBSTITUTE(LOWER(H24) , " ", "_") ,"(", I24 ,");")</f>
+      <c r="P24" t="str">
+        <f>CONCATENATE("typedef ",O24," ",LOWER(F24), "_",  SUBSTITUTE(LOWER(H24), " ", "_"),"(", I24,");")</f>
         <v>typedef void one_param_const_bool_num_other(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="1">
         <v>6</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A25,5),D25))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A25,5),D25))</f>
         <v>26</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -2477,38 +2410,38 @@
       <c r="O25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O25," ",LOWER(F25), "_",  SUBSTITUTE(LOWER(H25) , " ", "_") ,"(", I25 ,");")</f>
+      <c r="P25" t="str">
+        <f>CONCATENATE("typedef ",O25," ",LOWER(F25), "_",  SUBSTITUTE(LOWER(H25), " ", "_"),"(", I25,");")</f>
         <v>typedef void one_param_const_bool_num_buff(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="1">
         <v>6</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A26,5),D26))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A26,5),D26))</f>
         <v>46</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -2529,38 +2462,38 @@
       <c r="O26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P26" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O26," ",LOWER(F26), "_",  SUBSTITUTE(LOWER(H26) , " ", "_") ,"(", I26 ,");")</f>
+      <c r="P26" t="str">
+        <f>CONCATENATE("typedef ",O26," ",LOWER(F26), "_",  SUBSTITUTE(LOWER(H26), " ", "_"),"(", I26,");")</f>
         <v>typedef void one_param_const_bool_num_buff(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="79.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:17" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="1">
         <v>6</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A27,5),D27))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A27,5),D27))</f>
         <v>66</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -2581,66 +2514,66 @@
       <c r="O27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P27" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O27," ",LOWER(F27), "_",  SUBSTITUTE(LOWER(H27) , " ", "_") ,"(", I27 ,");")</f>
+      <c r="P27" t="str">
+        <f>CONCATENATE("typedef ",O27," ",LOWER(F27), "_",  SUBSTITUTE(LOWER(H27), " ", "_"),"(", I27,");")</f>
         <v>typedef void one_param_const_bool_num_other(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="28" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="J28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="28" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="1">
         <v>7</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A29,5),D29))</f>
+        <f t="shared" ref="E29:E35" si="3">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A29,5),D29))</f>
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -2661,38 +2594,38 @@
       <c r="O29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P29" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O29," ",LOWER(F29), "_",  SUBSTITUTE(LOWER(H29) , " ", "_") ,"(", I29 ,");")</f>
+      <c r="P29" t="str">
+        <f t="shared" ref="P29:P35" si="4">CONCATENATE("typedef ",O29," ",LOWER(F29), "_",  SUBSTITUTE(LOWER(H29), " ", "_"),"(", I29,");")</f>
         <v>typedef void one_param_lms7002m_chan_num_buff(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="113.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:17" ht="125" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="1">
         <v>7</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A30,5),D30))</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -2713,41 +2646,41 @@
       <c r="O30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P30" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O30," ",LOWER(F30), "_",  SUBSTITUTE(LOWER(H30) , " ", "_") ,"(", I30 ,");")</f>
+      <c r="P30" t="str">
+        <f t="shared" si="4"/>
         <v>typedef void one_param_lms7002m_chan_num_mac(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="1">
         <v>7</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A31,5),D31))</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="11" t="s">
+      <c r="I31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>97</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -2765,41 +2698,41 @@
       <c r="O31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P31" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O31," ",LOWER(F31), "_",  SUBSTITUTE(LOWER(H31) , " ", "_") ,"(", I31 ,");")</f>
+      <c r="P31" t="str">
+        <f t="shared" si="4"/>
         <v>typedef void one_param_lms7002m_chan_num_mac(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="1">
         <v>7</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A32,5),D32))</f>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="I32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -2817,13 +2750,13 @@
       <c r="O32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P32" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O32," ",LOWER(F32), "_",  SUBSTITUTE(LOWER(H32) , " ", "_") ,"(", I32 ,");")</f>
+      <c r="P32" t="str">
+        <f t="shared" si="4"/>
         <v>typedef void one_param_lms7002m_chan_num_enable_channel(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2832,26 +2765,26 @@
       <c r="C33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="1">
         <v>7</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A33,5),D33))</f>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J33" s="5" t="s">
+      <c r="I33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -2869,38 +2802,38 @@
       <c r="O33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O33," ",LOWER(F33), "_",  SUBSTITUTE(LOWER(H33) , " ", "_") ,"(", I33 ,");")</f>
+      <c r="P33" t="str">
+        <f t="shared" si="4"/>
         <v>typedef void one_param_lms7002m_chan_num_enable_channel(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="1">
         <v>7</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A34,5),D34))</f>
+        <f t="shared" si="3"/>
         <v>A7</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J34" s="5" t="s">
+      <c r="I34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -2918,38 +2851,38 @@
       <c r="O34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P34" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O34," ",LOWER(F34), "_",  SUBSTITUTE(LOWER(H34) , " ", "_") ,"(", I34 ,");")</f>
+      <c r="P34" t="str">
+        <f t="shared" si="4"/>
         <v>typedef int one_param_lms7002m_chan_num_enable_channel(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="1">
         <v>7</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A35,5),D35))</f>
+        <f t="shared" si="3"/>
         <v>C7</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J35" s="5" t="s">
+      <c r="I35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -2967,66 +2900,66 @@
       <c r="O35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P35" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O35," ",LOWER(F35), "_",  SUBSTITUTE(LOWER(H35) , " ", "_") ,"(", I35 ,");")</f>
+      <c r="P35" t="str">
+        <f t="shared" si="4"/>
         <v>typedef int one_param_lms7002m_chan_num_enable_channel(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="36" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="J36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="36" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="J36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36"/>
+    </row>
+    <row r="37" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="1">
         <v>8</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A37,5),D37))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A37,5),D37))</f>
         <v>8</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="4" t="s">
         <v>107</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -3047,66 +2980,66 @@
       <c r="O37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P37" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O37," ",LOWER(F37), "_",  SUBSTITUTE(LOWER(H37) , " ", "_") ,"(", I37 ,");")</f>
+      <c r="P37" t="str">
+        <f>CONCATENATE("typedef ",O37," ",LOWER(F37), "_",  SUBSTITUTE(LOWER(H37), " ", "_"),"(", I37,");")</f>
         <v>typedef void two_param_lms7002m_dir_int_num_iq(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="38" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="J38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="38" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38"/>
+    </row>
+    <row r="39" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="1">
         <v>9</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A39,5),D39))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A39,5),D39))</f>
         <v>9</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="4" t="s">
         <v>112</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -3127,66 +3060,66 @@
       <c r="O39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P39" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O39," ",LOWER(F39), "_",  SUBSTITUTE(LOWER(H39) , " ", "_") ,"(", I39 ,");")</f>
+      <c r="P39" t="str">
+        <f>CONCATENATE("typedef ",O39," ",LOWER(F39), "_",  SUBSTITUTE(LOWER(H39), " ", "_"),"(", I39,");")</f>
         <v>typedef void ldo_enable_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="40" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="J40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="40" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="J40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40"/>
+    </row>
+    <row r="41" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="1">
         <v>10</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A41,5),D41))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A41,5),D41))</f>
         <v>A</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="4" t="s">
         <v>117</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -3207,66 +3140,66 @@
       <c r="O41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P41" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O41," ",LOWER(F41), "_",  SUBSTITUTE(LOWER(H41) , " ", "_") ,"(", I41 ,");")</f>
+      <c r="P41" t="str">
+        <f>CONCATENATE("typedef ",O41," ",LOWER(F41), "_",  SUBSTITUTE(LOWER(H41), " ", "_"),"(", I41,");")</f>
         <v>typedef void afe_enable_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="42" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="J42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="113.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="42" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42"/>
+    </row>
+    <row r="43" spans="1:17" ht="125" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D43" s="1">
         <v>11</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A43,5),D43))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A43,5),D43))</f>
         <v>B</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="4" t="s">
         <v>122</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J43" s="1" t="s">
@@ -3287,66 +3220,66 @@
       <c r="O43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P43" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O43," ",LOWER(F43), "_",  SUBSTITUTE(LOWER(H43) , " ", "_") ,"(", I43 ,");")</f>
+      <c r="P43" t="str">
+        <f>CONCATENATE("typedef ",O43," ",LOWER(F43), "_",  SUBSTITUTE(LOWER(H43), " ", "_"),"(", I43,");")</f>
         <v>typedef int set_data_clock_num_sampling(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="44" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="J44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" customFormat="false" ht="102.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="44" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="J44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44"/>
+    </row>
+    <row r="45" spans="1:17" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="1">
         <v>12</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A45,5),D45))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A45,5),D45))</f>
         <v>C</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="4" t="s">
         <v>129</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -3367,66 +3300,66 @@
       <c r="O45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P45" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O45," ",LOWER(F45), "_",  SUBSTITUTE(LOWER(H45) , " ", "_") ,"(", I45 ,");")</f>
+      <c r="P45" t="str">
+        <f>CONCATENATE("typedef ",O45," ",LOWER(F45), "_",  SUBSTITUTE(LOWER(H45), " ", "_"),"(", I45,");")</f>
         <v>typedef void set_nco_freq_num_frequency_tunning(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="46" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="J46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="46" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="J46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46"/>
+    </row>
+    <row r="47" spans="1:17" ht="162.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D47" s="1">
         <v>13</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A47,5),D47))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A47,5),D47))</f>
         <v>D</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="4" t="s">
         <v>134</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -3447,66 +3380,66 @@
       <c r="O47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P47" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O47," ",LOWER(F47), "_",  SUBSTITUTE(LOWER(H47) , " ", "_") ,"(", I47 ,");")</f>
+      <c r="P47" t="str">
+        <f>CONCATENATE("typedef ",O47," ",LOWER(F47), "_",  SUBSTITUTE(LOWER(H47), " ", "_"),"(", I47,");")</f>
         <v>typedef int set_gfir_taps_num_fir(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="48" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="J48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" customFormat="false" ht="113.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="48" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="J48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48"/>
+    </row>
+    <row r="49" spans="1:17" ht="125" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49" s="1">
         <v>14</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A49,5),D49))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A49,5),D49))</f>
         <v>E</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="4" t="s">
         <v>139</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -3527,66 +3460,66 @@
       <c r="O49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P49" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O49," ",LOWER(F49), "_",  SUBSTITUTE(LOWER(H49) , " ", "_") ,"(", I49 ,");")</f>
+      <c r="P49" t="str">
+        <f>CONCATENATE("typedef ",O49," ",LOWER(F49), "_",  SUBSTITUTE(LOWER(H49), " ", "_"),"(", I49,");")</f>
         <v>typedef int set_lo_freq_num_frequency_tunning(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="50" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="J50" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="50" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="J50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50"/>
+    </row>
+    <row r="51" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D51" s="1">
         <v>15</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A51,5),D51))</f>
+        <f t="shared" ref="E51:E59" si="5">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A51,5),D51))</f>
         <v>F</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -3607,41 +3540,41 @@
       <c r="O51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P51" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O51," ",LOWER(F51), "_",  SUBSTITUTE(LOWER(H51) , " ", "_") ,"(", I51 ,");")</f>
+      <c r="P51" t="str">
+        <f t="shared" ref="P51:P59" si="6">CONCATENATE("typedef ",O51," ",LOWER(F51), "_",  SUBSTITUTE(LOWER(H51), " ", "_"),"(", I51,");")</f>
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="79.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:17" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D52" s="1">
         <v>15</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A52,5),D52))</f>
+        <f t="shared" si="5"/>
         <v>2F</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I52" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J52" s="5" t="s">
+      <c r="I52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K52" s="1" t="s">
@@ -3659,41 +3592,41 @@
       <c r="O52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P52" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O52," ",LOWER(F52), "_",  SUBSTITUTE(LOWER(H52) , " ", "_") ,"(", I52 ,");")</f>
+      <c r="P52" t="str">
+        <f t="shared" si="6"/>
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="1" t="n">
+      <c r="D53" s="1">
         <v>15</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A53,5),D53))</f>
+        <f t="shared" si="5"/>
         <v>4F</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I53" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J53" s="5" t="s">
+      <c r="I53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K53" s="1" t="s">
@@ -3711,41 +3644,41 @@
       <c r="O53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P53" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O53," ",LOWER(F53), "_",  SUBSTITUTE(LOWER(H53) , " ", "_") ,"(", I53 ,");")</f>
+      <c r="P53" t="str">
+        <f t="shared" si="6"/>
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D54" s="1">
         <v>15</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A54,5),D54))</f>
+        <f t="shared" si="5"/>
         <v>6F</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I54" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J54" s="5" t="s">
+      <c r="I54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -3763,41 +3696,41 @@
       <c r="O54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P54" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O54," ",LOWER(F54), "_",  SUBSTITUTE(LOWER(H54) , " ", "_") ,"(", I54 ,");")</f>
+      <c r="P54" t="str">
+        <f t="shared" si="6"/>
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="1" t="n">
+      <c r="D55" s="1">
         <v>15</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A55,5),D55))</f>
+        <f t="shared" si="5"/>
         <v>8F</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I55" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J55" s="5" t="s">
+      <c r="I55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -3815,41 +3748,41 @@
       <c r="O55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P55" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O55," ",LOWER(F55), "_",  SUBSTITUTE(LOWER(H55) , " ", "_") ,"(", I55 ,");")</f>
+      <c r="P55" t="str">
+        <f t="shared" si="6"/>
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D56" s="1">
         <v>15</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A56,5),D56))</f>
+        <f t="shared" si="5"/>
         <v>AF</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I56" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J56" s="5" t="s">
+      <c r="I56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K56" s="1" t="s">
@@ -3867,41 +3800,41 @@
       <c r="O56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P56" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O56," ",LOWER(F56), "_",  SUBSTITUTE(LOWER(H56) , " ", "_") ,"(", I56 ,");")</f>
+      <c r="P56" t="str">
+        <f t="shared" si="6"/>
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="1" t="n">
+      <c r="D57" s="1">
         <v>15</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A57,5),D57))</f>
+        <f t="shared" si="5"/>
         <v>CF</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I57" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J57" s="5" t="s">
+      <c r="I57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K57" s="1" t="s">
@@ -3919,41 +3852,41 @@
       <c r="O57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P57" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O57," ",LOWER(F57), "_",  SUBSTITUTE(LOWER(H57) , " ", "_") ,"(", I57 ,");")</f>
+      <c r="P57" t="str">
+        <f t="shared" si="6"/>
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D58" s="1" t="n">
+      <c r="D58" s="1">
         <v>15</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A58,5),D58))</f>
+        <f t="shared" si="5"/>
         <v>EF</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J58" s="5" t="s">
+      <c r="I58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K58" s="1" t="s">
@@ -3971,41 +3904,41 @@
       <c r="O58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P58" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O58," ",LOWER(F58), "_",  SUBSTITUTE(LOWER(H58) , " ", "_") ,"(", I58 ,");")</f>
+      <c r="P58" t="str">
+        <f t="shared" si="6"/>
         <v>typedef void two_param_lms_const_bool_num_test(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D59" s="1">
         <v>15</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A59,5),D59))</f>
+        <f t="shared" si="5"/>
         <v>10F</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J59" s="5" t="s">
+      <c r="I59" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K59" s="1" t="s">
@@ -4023,69 +3956,69 @@
       <c r="O59" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P59" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O59," ",LOWER(F59), "_",  SUBSTITUTE(LOWER(H59) , " ", "_") ,"(", I59 ,");")</f>
+      <c r="P59" t="str">
+        <f t="shared" si="6"/>
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="60" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="J60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="2"/>
-    </row>
-    <row r="61" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="60" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="J60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60"/>
+    </row>
+    <row r="61" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D61" s="1">
         <v>16</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A61,5),D61))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A61,5),D61))</f>
         <v>10</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="6" t="s">
         <v>164</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J61" s="5" t="s">
+      <c r="I61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K61" s="1" t="s">
@@ -4103,41 +4036,41 @@
       <c r="O61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P61" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O61," ",LOWER(F61), "_",  SUBSTITUTE(LOWER(H61) , " ", "_") ,"(", I61 ,");")</f>
+      <c r="P61" t="str">
+        <f>CONCATENATE("typedef ",O61," ",LOWER(F61), "_",  SUBSTITUTE(LOWER(H61), " ", "_"),"(", I61,");")</f>
         <v>typedef void two_param_chant_sizet_num_sampling(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="1" t="n">
+      <c r="D62" s="1">
         <v>16</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A62,5),D62))</f>
-        <v>30</v>
-      </c>
-      <c r="F62" s="8" t="s">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A62,5),D62))</f>
+        <v>30</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="6" t="s">
         <v>164</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I62" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J62" s="5" t="s">
+      <c r="I62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K62" s="1" t="s">
@@ -4155,69 +4088,69 @@
       <c r="O62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P62" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O62," ",LOWER(F62), "_",  SUBSTITUTE(LOWER(H62) , " ", "_") ,"(", I62 ,");")</f>
+      <c r="P62" t="str">
+        <f>CONCATENATE("typedef ",O62," ",LOWER(F62), "_",  SUBSTITUTE(LOWER(H62), " ", "_"),"(", I62,");")</f>
         <v>typedef void two_param_chant_sizet_num_sampling(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="63" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="J63" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L63" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N63" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="2"/>
-    </row>
-    <row r="64" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="63" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="J63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63"/>
+    </row>
+    <row r="64" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="1" t="n">
+      <c r="D64" s="1">
         <v>17</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A64,5),D64))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A64,5),D64))</f>
         <v>11</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="4" t="s">
         <v>171</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I64" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J64" s="5" t="s">
+      <c r="I64" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K64" s="1" t="s">
@@ -4235,41 +4168,41 @@
       <c r="O64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P64" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O64," ",LOWER(F64), "_",  SUBSTITUTE(LOWER(H64) , " ", "_") ,"(", I64 ,");")</f>
+      <c r="P64" t="str">
+        <f>CONCATENATE("typedef ",O64," ",LOWER(F64), "_",  SUBSTITUTE(LOWER(H64), " ", "_"),"(", I64,");")</f>
         <v>typedef void sp_tsg_num_iq(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D65" s="1">
         <v>17</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A65,5),D65))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A65,5),D65))</f>
         <v>31</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="4" t="s">
         <v>171</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I65" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J65" s="5" t="s">
+      <c r="I65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K65" s="1" t="s">
@@ -4287,75 +4220,75 @@
       <c r="O65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P65" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O65," ",LOWER(F65), "_",  SUBSTITUTE(LOWER(H65) , " ", "_") ,"(", I65 ,");")</f>
+      <c r="P65" t="str">
+        <f>CONCATENATE("typedef ",O65," ",LOWER(F65), "_",  SUBSTITUTE(LOWER(H65), " ", "_"),"(", I65,");")</f>
         <v>typedef void sp_tsg_num_iq(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="66" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="J66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="2"/>
-    </row>
-    <row r="67" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="66" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="J66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66"/>
+    </row>
+    <row r="67" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D67" s="1" t="n">
+      <c r="D67" s="1">
         <v>18</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A67,5),D67))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A67,5),D67))</f>
         <v>12</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="4" t="s">
         <v>177</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J67" s="5" t="s">
+      <c r="I67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="K67" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L67" s="5" t="s">
+      <c r="L67" s="3" t="s">
         <v>179</v>
       </c>
       <c r="M67" s="1" t="s">
@@ -4367,47 +4300,47 @@
       <c r="O67" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P67" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O67," ",LOWER(F67), "_",  SUBSTITUTE(LOWER(H67) , " ", "_") ,"(", I67 ,");")</f>
+      <c r="P67" t="str">
+        <f>CONCATENATE("typedef ",O67," ",LOWER(F67), "_",  SUBSTITUTE(LOWER(H67), " ", "_"),"(", I67,");")</f>
         <v>typedef void txstp_correction_num_calibrate(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="146.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:17" ht="175" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="1" t="n">
+      <c r="D68" s="1">
         <v>18</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A68,5),D68))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A68,5),D68))</f>
         <v>32</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="4" t="s">
         <v>177</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I68" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J68" s="5" t="s">
+      <c r="I68" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K68" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L68" s="5" t="s">
+      <c r="L68" s="3" t="s">
         <v>179</v>
       </c>
       <c r="M68" s="1" t="s">
@@ -4419,75 +4352,75 @@
       <c r="O68" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P68" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O68," ",LOWER(F68), "_",  SUBSTITUTE(LOWER(H68) , " ", "_") ,"(", I68 ,");")</f>
+      <c r="P68" t="str">
+        <f>CONCATENATE("typedef ",O68," ",LOWER(F68), "_",  SUBSTITUTE(LOWER(H68), " ", "_"),"(", I68,");")</f>
         <v>typedef void txstp_correction_num_calibrate(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="69" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="J69" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="2"/>
-    </row>
-    <row r="70" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="69" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="J69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69"/>
+    </row>
+    <row r="70" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="1" t="n">
+      <c r="D70" s="1">
         <v>19</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A70,5),D70))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A70,5),D70))</f>
         <v>13</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="4" t="s">
         <v>184</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J70" s="5" t="s">
+      <c r="I70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="K70" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L70" s="4" t="s">
+      <c r="L70" s="2" t="s">
         <v>186</v>
       </c>
       <c r="M70" s="1" t="s">
@@ -4499,47 +4432,47 @@
       <c r="O70" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P70" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O70," ",LOWER(F70), "_",  SUBSTITUTE(LOWER(H70) , " ", "_") ,"(", I70 ,");")</f>
+      <c r="P70" t="str">
+        <f>CONCATENATE("typedef ",O70," ",LOWER(F70), "_",  SUBSTITUTE(LOWER(H70), " ", "_"),"(", I70,");")</f>
         <v>typedef void rxtsp_num_calibrate(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:17" ht="175" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D71" s="1" t="n">
+      <c r="D71" s="1">
         <v>19</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A71,5),D71))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A71,5),D71))</f>
         <v>33</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" s="4" t="s">
         <v>184</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I71" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J71" s="5" t="s">
+      <c r="I71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="K71" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L71" s="4" t="s">
+      <c r="L71" s="2" t="s">
         <v>186</v>
       </c>
       <c r="M71" s="1" t="s">
@@ -4551,69 +4484,69 @@
       <c r="O71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P71" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O71," ",LOWER(F71), "_",  SUBSTITUTE(LOWER(H71) , " ", "_") ,"(", I71 ,");")</f>
+      <c r="P71" t="str">
+        <f>CONCATENATE("typedef ",O71," ",LOWER(F71), "_",  SUBSTITUTE(LOWER(H71), " ", "_"),"(", I71,");")</f>
         <v>typedef void rxtsp_num_calibrate(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="72" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="J72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="2"/>
-    </row>
-    <row r="73" customFormat="false" ht="79.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="72" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="J72" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72"/>
+    </row>
+    <row r="73" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D73" s="1" t="n">
+      <c r="D73" s="1">
         <v>20</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A73,5),D73))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A73,5),D73))</f>
         <v>14</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" s="4" t="s">
         <v>192</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I73" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J73" s="5" t="s">
+      <c r="I73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K73" s="1" t="s">
@@ -4631,41 +4564,41 @@
       <c r="O73" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P73" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O73," ",LOWER(F73), "_",  SUBSTITUTE(LOWER(H73) , " ", "_") ,"(", I73 ,");")</f>
+      <c r="P73" t="str">
+        <f>CONCATENATE("typedef ",O73," ",LOWER(F73), "_",  SUBSTITUTE(LOWER(H73), " ", "_"),"(", I73,");")</f>
         <v>typedef void set_path_and_band_num_band(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D74" s="1" t="n">
+      <c r="D74" s="1">
         <v>20</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A74,5),D74))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A74,5),D74))</f>
         <v>34</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="4" t="s">
         <v>192</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I74" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J74" s="5" t="s">
+      <c r="I74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J74" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K74" s="1" t="s">
@@ -4683,41 +4616,41 @@
       <c r="O74" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P74" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O74," ",LOWER(F74), "_",  SUBSTITUTE(LOWER(H74) , " ", "_") ,"(", I74 ,");")</f>
+      <c r="P74" t="str">
+        <f>CONCATENATE("typedef ",O74," ",LOWER(F74), "_",  SUBSTITUTE(LOWER(H74), " ", "_"),"(", I74,");")</f>
         <v>typedef void set_path_and_band_num_test(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D75" s="1" t="n">
+      <c r="D75" s="1">
         <v>20</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A75,5),D75))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A75,5),D75))</f>
         <v>54</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="4" t="s">
         <v>192</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I75" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J75" s="5" t="s">
+      <c r="I75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K75" s="1" t="s">
@@ -4735,41 +4668,41 @@
       <c r="O75" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P75" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O75," ",LOWER(F75), "_",  SUBSTITUTE(LOWER(H75) , " ", "_") ,"(", I75 ,");")</f>
+      <c r="P75" t="str">
+        <f>CONCATENATE("typedef ",O75," ",LOWER(F75), "_",  SUBSTITUTE(LOWER(H75), " ", "_"),"(", I75,");")</f>
         <v>typedef void set_path_and_band_num_band(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="79.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D76" s="1" t="n">
+      <c r="D76" s="1">
         <v>20</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A76,5),D76))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A76,5),D76))</f>
         <v>74</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="4" t="s">
         <v>192</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I76" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J76" s="5" t="s">
+      <c r="I76" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K76" s="1" t="s">
@@ -4787,41 +4720,41 @@
       <c r="O76" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P76" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O76," ",LOWER(F76), "_",  SUBSTITUTE(LOWER(H76) , " ", "_") ,"(", I76 ,");")</f>
+      <c r="P76" t="str">
+        <f>CONCATENATE("typedef ",O76," ",LOWER(F76), "_",  SUBSTITUTE(LOWER(H76), " ", "_"),"(", I76,");")</f>
         <v>typedef void set_path_and_band_num_band(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D77" s="1" t="n">
+      <c r="D77" s="1">
         <v>20</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A77,5),D77))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A77,5),D77))</f>
         <v>94</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="4" t="s">
         <v>192</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I77" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J77" s="5" t="s">
+      <c r="I77" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K77" s="1" t="s">
@@ -4839,69 +4772,69 @@
       <c r="O77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P77" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O77," ",LOWER(F77), "_",  SUBSTITUTE(LOWER(H77) , " ", "_") ,"(", I77 ,");")</f>
+      <c r="P77" t="str">
+        <f>CONCATENATE("typedef ",O77," ",LOWER(F77), "_",  SUBSTITUTE(LOWER(H77), " ", "_"),"(", I77,");")</f>
         <v>typedef void set_path_and_band_num_enable_channel(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="78" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="J78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="2"/>
-    </row>
-    <row r="79" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="78" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="J78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78"/>
+    </row>
+    <row r="79" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D79" s="1" t="n">
+      <c r="D79" s="1">
         <v>21</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A79,5),D79))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A79,5),D79))</f>
         <v>15</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="4" t="s">
         <v>205</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I79" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J79" s="5" t="s">
+      <c r="I79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K79" s="1" t="s">
@@ -4919,69 +4852,69 @@
       <c r="O79" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P79" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O79," ",LOWER(F79), "_",  SUBSTITUTE(LOWER(H79) , " ", "_") ,"(", I79 ,");")</f>
+      <c r="P79" t="str">
+        <f>CONCATENATE("typedef ",O79," ",LOWER(F79), "_",  SUBSTITUTE(LOWER(H79), " ", "_"),"(", I79,");")</f>
         <v>typedef void tbb_loop_back_enable_num_iq(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="80" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="J80" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K80" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L80" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N80" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="2"/>
-    </row>
-    <row r="81" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+    <row r="80" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="J80" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80"/>
+    </row>
+    <row r="81" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D81" s="1" t="n">
+      <c r="D81" s="1">
         <v>22</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A81,5),D81))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A81,5),D81))</f>
         <v>16</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="4" t="s">
         <v>209</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I81" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J81" s="5" t="s">
+      <c r="I81" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K81" s="1" t="s">
@@ -4999,41 +4932,41 @@
       <c r="O81" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P81" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O81," ",LOWER(F81), "_",  SUBSTITUTE(LOWER(H81) , " ", "_") ,"(", I81 ,");")</f>
+      <c r="P81" t="str">
+        <f>CONCATENATE("typedef ",O81," ",LOWER(F81), "_",  SUBSTITUTE(LOWER(H81), " ", "_"),"(", I81,");")</f>
         <v>typedef int bb_filer_set_num_calibrate(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D82" s="1" t="n">
+      <c r="D82" s="1">
         <v>22</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A82,5),D82))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A82,5),D82))</f>
         <v>36</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="4" t="s">
         <v>209</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I82" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J82" s="5" t="s">
+      <c r="I82" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K82" s="1" t="s">
@@ -5051,69 +4984,69 @@
       <c r="O82" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P82" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O82," ",LOWER(F82), "_",  SUBSTITUTE(LOWER(H82) , " ", "_") ,"(", I82 ,");")</f>
+      <c r="P82" t="str">
+        <f>CONCATENATE("typedef ",O82," ",LOWER(F82), "_",  SUBSTITUTE(LOWER(H82), " ", "_"),"(", I82,");")</f>
         <v>typedef int bb_filer_set_num_calibrate(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="83" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="J83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="2"/>
-    </row>
-    <row r="84" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+    <row r="83" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="J83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83"/>
+    </row>
+    <row r="84" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D84" s="1" t="n">
+      <c r="D84" s="1">
         <v>23</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A84,5),D84))</f>
+        <f t="shared" ref="E84:E91" si="7">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A84,5),D84))</f>
         <v>17</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" s="4" t="s">
         <v>215</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I84" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J84" s="5" t="s">
+      <c r="I84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J84" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K84" s="1" t="s">
@@ -5131,41 +5064,41 @@
       <c r="O84" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P84" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O84," ",LOWER(F84), "_",  SUBSTITUTE(LOWER(H84) , " ", "_") ,"(", I84 ,");")</f>
+      <c r="P84" t="str">
+        <f t="shared" ref="P84:P91" si="8">CONCATENATE("typedef ",O84," ",LOWER(F84), "_",  SUBSTITUTE(LOWER(H84), " ", "_"),"(", I84,");")</f>
         <v>typedef void trf_rbb_rfe_num_frequency_tunning(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D85" s="1" t="n">
+      <c r="D85" s="1">
         <v>23</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A85,5),D85))</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" s="4" t="s">
         <v>215</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I85" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J85" s="5" t="s">
+      <c r="I85" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K85" s="1" t="s">
@@ -5183,41 +5116,41 @@
       <c r="O85" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P85" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O85," ",LOWER(F85), "_",  SUBSTITUTE(LOWER(H85) , " ", "_") ,"(", I85 ,");")</f>
+      <c r="P85" t="str">
+        <f t="shared" si="8"/>
         <v>typedef void trf_rbb_rfe_num_frequency_tunning(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>2</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D86" s="1" t="n">
+      <c r="D86" s="1">
         <v>23</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A86,5),D86))</f>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="4" t="s">
         <v>215</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I86" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J86" s="5" t="s">
+      <c r="I86" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J86" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K86" s="1" t="s">
@@ -5235,41 +5168,41 @@
       <c r="O86" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P86" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O86," ",LOWER(F86), "_",  SUBSTITUTE(LOWER(H86) , " ", "_") ,"(", I86 ,");")</f>
+      <c r="P86" t="str">
+        <f t="shared" si="8"/>
         <v>typedef double trf_rbb_rfe_num_gain(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>3</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D87" s="1" t="n">
+      <c r="D87" s="1">
         <v>23</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A87,5),D87))</f>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" s="4" t="s">
         <v>215</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I87" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J87" s="5" t="s">
+      <c r="I87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J87" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K87" s="1" t="s">
@@ -5287,41 +5220,41 @@
       <c r="O87" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P87" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O87," ",LOWER(F87), "_",  SUBSTITUTE(LOWER(H87) , " ", "_") ,"(", I87 ,");")</f>
+      <c r="P87" t="str">
+        <f t="shared" si="8"/>
         <v>typedef double trf_rbb_rfe_num_gain(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>4</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D88" s="1" t="n">
+      <c r="D88" s="1">
         <v>23</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A88,5),D88))</f>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" s="4" t="s">
         <v>215</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I88" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J88" s="5" t="s">
+      <c r="I88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J88" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K88" s="1" t="s">
@@ -5339,41 +5272,41 @@
       <c r="O88" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P88" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O88," ",LOWER(F88), "_",  SUBSTITUTE(LOWER(H88) , " ", "_") ,"(", I88 ,");")</f>
+      <c r="P88" t="str">
+        <f t="shared" si="8"/>
         <v>typedef double trf_rbb_rfe_num_gain(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>5</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D89" s="1" t="n">
+      <c r="D89" s="1">
         <v>23</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A89,5),D89))</f>
+        <f t="shared" si="7"/>
         <v>B7</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" s="4" t="s">
         <v>215</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I89" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J89" s="5" t="s">
+      <c r="I89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J89" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K89" s="1" t="s">
@@ -5391,41 +5324,41 @@
       <c r="O89" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P89" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O89," ",LOWER(F89), "_",  SUBSTITUTE(LOWER(H89) , " ", "_") ,"(", I89 ,");")</f>
+      <c r="P89" t="str">
+        <f t="shared" si="8"/>
         <v>typedef double trf_rbb_rfe_num_gain(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>6</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D90" s="1" t="n">
+      <c r="D90" s="1">
         <v>23</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A90,5),D90))</f>
+        <f t="shared" si="7"/>
         <v>D7</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="4" t="s">
         <v>215</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I90" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J90" s="5" t="s">
+      <c r="I90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J90" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K90" s="1" t="s">
@@ -5443,41 +5376,41 @@
       <c r="O90" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P90" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O90," ",LOWER(F90), "_",  SUBSTITUTE(LOWER(H90) , " ", "_") ,"(", I90 ,");")</f>
+      <c r="P90" t="str">
+        <f t="shared" si="8"/>
         <v>typedef double trf_rbb_rfe_num_gain(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>7</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D91" s="1" t="n">
+      <c r="D91" s="1">
         <v>23</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A91,5),D91))</f>
+        <f t="shared" si="7"/>
         <v>F7</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" s="4" t="s">
         <v>215</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I91" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J91" s="5" t="s">
+      <c r="I91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J91" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K91" s="1" t="s">
@@ -5495,69 +5428,69 @@
       <c r="O91" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P91" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O91," ",LOWER(F91), "_",  SUBSTITUTE(LOWER(H91) , " ", "_") ,"(", I91 ,");")</f>
+      <c r="P91" t="str">
+        <f t="shared" si="8"/>
         <v>typedef double trf_rbb_rfe_num_gain(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="92" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="J92" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M92" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N92" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="2"/>
-    </row>
-    <row r="93" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+    <row r="92" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="J92" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92"/>
+    </row>
+    <row r="93" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>0</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D93" s="1" t="n">
+      <c r="D93" s="1">
         <v>24</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f aca="false">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A93,5),D93))</f>
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A93,5),D93))</f>
         <v>18</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="4" t="s">
         <v>235</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I93" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J93" s="5" t="s">
+      <c r="I93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J93" s="3" t="s">
         <v>97</v>
       </c>
       <c r="K93" s="1" t="s">
@@ -5575,48 +5508,46 @@
       <c r="O93" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P93" s="2" t="str">
-        <f aca="false">CONCATENATE("typedef ",O93," ",LOWER(F93), "_",  SUBSTITUTE(LOWER(H93) , " ", "_") ,"(", I93 ,");")</f>
+      <c r="P93" t="str">
+        <f>CONCATENATE("typedef ",O93," ",LOWER(F93), "_",  SUBSTITUTE(LOWER(H93), " ", "_"),"(", I93,");")</f>
         <v>typedef uint16_t readrssi_num_rssi(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="94" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="J94" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L94" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M94" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N94" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="2"/>
+    <row r="94" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="J94" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N94" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O94"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <autoFilter ref="A1:O94" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ApiDataBase/AutoGenCode.xlsx
+++ b/ApiDataBase/AutoGenCode.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkspaceDDigital\LSM7002MNiosProject\ApiDataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{0EB0BED4-7ED1-47D4-B359-692F785A1738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63798F87-B146-4B02-B5FC-75003E3D0CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bydtatype" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bydtatype!$A$1:$O$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bydtatype!$A$1:$O$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="242">
   <si>
     <t>SN</t>
   </si>
@@ -945,6 +944,18 @@
   </si>
   <si>
     <t>uint16_t</t>
+  </si>
+  <si>
+    <t>LMS7002M_set_work_mode</t>
+  </si>
+  <si>
+    <t>WORK MODE</t>
+  </si>
+  <si>
+    <t>Set Work Mode</t>
+  </si>
+  <si>
+    <t>E1</t>
   </si>
 </sst>
 </file>
@@ -1232,31 +1243,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="36.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" customWidth="1"/>
     <col min="7" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="27.81640625" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
     <col min="10" max="10" width="23" style="1" customWidth="1"/>
-    <col min="11" max="11" width="34.08984375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6328125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="66.81640625" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="66.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1320,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1361,7 +1372,7 @@
         <v>typedef LMS7002M_t* create_num_internal(LMS7002M_spi_transact_t);</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -1388,7 +1399,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:20" ht="50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1436,11 +1447,11 @@
         <v>31</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" ref="P4:P10" si="1">CONCATENATE("typedef ",O4," ",LOWER(F4), "_",  SUBSTITUTE(LOWER(H4), " ", "_"),"(", I4,");")</f>
+        <f t="shared" ref="P4:P9" si="1">CONCATENATE("typedef ",O4," ",LOWER(F4), "_",  SUBSTITUTE(LOWER(H4), " ", "_"),"(", I4,");")</f>
         <v>typedef void one_param_lms7002m_t_num_regs(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="100" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1492,7 +1503,7 @@
         <v>typedef void one_param_lms7002m_t_num_internal(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1544,7 +1555,7 @@
         <v>typedef void one_param_lms7002m_t_num_regs(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1596,7 +1607,7 @@
         <v>typedef void one_param_lms7002m_t_num_regs(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1648,7 +1659,7 @@
         <v>typedef void one_param_lms7002m_t_num_power(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1700,7 +1711,7 @@
         <v>typedef void one_param_lms7002m_t_num_power(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1748,176 +1759,172 @@
         <v>31</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("typedef ",O10," ",LOWER(F10), "_",  SUBSTITUTE(LOWER(H10), " ", "_"),"(", I10,");")</f>
         <v>typedef void one_param_lms7002m_t_num_loopback(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:20" ht="100" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="str">
+        <f>CONCATENATE("typedef ",O11," ",LOWER(F11), "_",  SUBSTITUTE(LOWER(H11), " ", "_"),"(", I11,");")</f>
+        <v>typedef void one_param_lms7002m_t_num_work_mode(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="1:20" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A12,5),D12))</f>
+      <c r="E13" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A13,5),D13))</f>
         <v>2</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P12" t="str">
-        <f>CONCATENATE("typedef ",O12," ",LOWER(F12), "_",  SUBSTITUTE(LOWER(H12), " ", "_"),"(", I12,");")</f>
+      <c r="P13" t="str">
+        <f>CONCATENATE("typedef ",O13," ",LOWER(F13), "_",  SUBSTITUTE(LOWER(H13), " ", "_"),"(", I13,");")</f>
         <v>typedef void spi_write_num_spi(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="J13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13"/>
-    </row>
-    <row r="14" spans="1:20" ht="100" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:20" ht="102" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A14,5),D14))</f>
-        <v>3</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" ref="P14:P20" si="2">CONCATENATE("typedef ",O14," ",LOWER(F14), "_",  SUBSTITUTE(LOWER(H14), " ", "_"),"(", I14,");")</f>
-        <v>typedef int spi_config_num_spi(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="100" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>47</v>
@@ -1927,7 +1934,7 @@
       </c>
       <c r="E15" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A15,5),D15))</f>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>53</v>
@@ -1957,29 +1964,29 @@
         <v>22</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="2"/>
-        <v>typedef void spi_config_num_spi(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="100" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P15:P21" si="2">CONCATENATE("typedef ",O15," ",LOWER(F15), "_",  SUBSTITUTE(LOWER(H15), " ", "_"),"(", I15,");")</f>
+        <v>typedef int spi_config_num_spi(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A16,5),D16))</f>
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>53</v>
@@ -2016,22 +2023,22 @@
         <v>typedef void spi_config_num_spi(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A17,5),D17))</f>
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>53</v>
@@ -2068,105 +2075,105 @@
         <v>typedef void spi_config_num_spi(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="7"/>
+    <row r="18" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A18,5),D18))</f>
+        <v>63</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="P18" t="str">
         <f t="shared" si="2"/>
-        <v>typedef  _();</v>
-      </c>
-      <c r="Q18"/>
-    </row>
-    <row r="19" spans="1:17" ht="50" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A19,5),D19))</f>
-        <v>4</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>typedef void spi_config_num_spi(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="7"/>
       <c r="P19" t="str">
         <f t="shared" si="2"/>
-        <v>typedef int ini_num_ini(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+        <v>typedef  _();</v>
+      </c>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A20,5),D20))</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>63</v>
@@ -2203,182 +2210,182 @@
         <v>typedef int ini_num_ini(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="J21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21"/>
-    </row>
-    <row r="22" spans="1:17" ht="175" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="21" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A21,5),D21))</f>
+        <v>24</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="2"/>
+        <v>typedef int ini_num_ini(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="1:17" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>0</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>5</v>
       </c>
-      <c r="E22" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A22,5),D22))</f>
+      <c r="E23" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A23,5),D23))</f>
         <v>5</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="I23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="M23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P22" t="str">
-        <f>CONCATENATE("typedef ",O22," ",LOWER(F22), "_",  SUBSTITUTE(LOWER(H22), " ", "_"),"(", I22,");")</f>
+      <c r="P23" t="str">
+        <f>CONCATENATE("typedef ",O23," ",LOWER(F23), "_",  SUBSTITUTE(LOWER(H23), " ", "_"),"(", I23,");")</f>
         <v>typedef void configure_lml_port_num_loopback(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23"/>
-    </row>
-    <row r="24" spans="1:17" ht="50" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24"/>
+    </row>
+    <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A24,5),D24))</f>
-        <v>6</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P24" t="str">
-        <f>CONCATENATE("typedef ",O24," ",LOWER(F24), "_",  SUBSTITUTE(LOWER(H24), " ", "_"),"(", I24,");")</f>
-        <v>typedef void one_param_const_bool_num_other(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A25,5),D25))</f>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>77</v>
@@ -2387,7 +2394,7 @@
         <v>78</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>30</v>
@@ -2412,25 +2419,25 @@
       </c>
       <c r="P25" t="str">
         <f>CONCATENATE("typedef ",O25," ",LOWER(F25), "_",  SUBSTITUTE(LOWER(H25), " ", "_"),"(", I25,");")</f>
-        <v>typedef void one_param_const_bool_num_buff(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>typedef void one_param_const_bool_num_other(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A26,5),D26))</f>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>77</v>
@@ -2467,22 +2474,22 @@
         <v>typedef void one_param_const_bool_num_buff(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1">
         <v>6</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A27,5),D27))</f>
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>77</v>
@@ -2491,7 +2498,7 @@
         <v>78</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>30</v>
@@ -2516,158 +2523,158 @@
       </c>
       <c r="P27" t="str">
         <f>CONCATENATE("typedef ",O27," ",LOWER(F27), "_",  SUBSTITUTE(LOWER(H27), " ", "_"),"(", I27,");")</f>
+        <v>typedef void one_param_const_bool_num_buff(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A28,5),D28))</f>
+        <v>66</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" t="str">
+        <f>CONCATENATE("typedef ",O28," ",LOWER(F28), "_",  SUBSTITUTE(LOWER(H28), " ", "_"),"(", I28,");")</f>
         <v>typedef void one_param_const_bool_num_other(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="J28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28"/>
-    </row>
-    <row r="29" spans="1:17" ht="50" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>0</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D29" s="1">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <f t="shared" ref="E29:E35" si="3">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A29,5),D29))</f>
-        <v>7</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" ref="P29:P35" si="4">CONCATENATE("typedef ",O29," ",LOWER(F29), "_",  SUBSTITUTE(LOWER(H29), " ", "_"),"(", I29,");")</f>
-        <v>typedef void one_param_lms7002m_chan_num_buff(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="125" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D30" s="1">
         <v>7</v>
       </c>
       <c r="E30" s="1" t="str">
+        <f t="shared" ref="E30:E36" si="3">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A30,5),D30))</f>
+        <v>7</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" ref="P30:P36" si="4">CONCATENATE("typedef ",O30," ",LOWER(F30), "_",  SUBSTITUTE(LOWER(H30), " ", "_"),"(", I30,");")</f>
+        <v>typedef void one_param_lms7002m_chan_num_buff(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="str">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="4"/>
-        <v>typedef void one_param_lms7002m_chan_num_mac(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="100" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="1">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
       <c r="F31" s="1" t="s">
         <v>90</v>
       </c>
@@ -2680,8 +2687,8 @@
       <c r="I31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>97</v>
+      <c r="J31" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>22</v>
@@ -2703,22 +2710,22 @@
         <v>typedef void one_param_lms7002m_chan_num_mac(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="1">
         <v>7</v>
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>90</v>
@@ -2727,12 +2734,12 @@
         <v>91</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="9" t="s">
         <v>97</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -2752,25 +2759,25 @@
       </c>
       <c r="P32" t="str">
         <f t="shared" si="4"/>
-        <v>typedef void one_param_lms7002m_chan_num_enable_channel(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+        <v>typedef void one_param_lms7002m_chan_num_mac(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="D33" s="1">
         <v>7</v>
       </c>
       <c r="E33" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>90</v>
@@ -2807,19 +2814,22 @@
         <v>typedef void one_param_lms7002m_chan_num_enable_channel(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D34" s="1">
         <v>7</v>
       </c>
       <c r="E34" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>A7</v>
+        <v>87</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>90</v>
@@ -2849,26 +2859,26 @@
         <v>22</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P34" t="str">
         <f t="shared" si="4"/>
-        <v>typedef int one_param_lms7002m_chan_num_enable_channel(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="25" x14ac:dyDescent="0.25">
+        <v>typedef void one_param_lms7002m_chan_num_enable_channel(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1">
         <v>7</v>
       </c>
       <c r="E35" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C7</v>
+        <v>A7</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>90</v>
@@ -2905,714 +2915,711 @@
         <v>typedef int one_param_lms7002m_chan_num_enable_channel(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="J36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36"/>
-    </row>
-    <row r="37" spans="1:17" ht="50" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="36" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>C7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="4"/>
+        <v>typedef int one_param_lms7002m_chan_num_enable_channel(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="J37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37"/>
+    </row>
+    <row r="38" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>0</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D38" s="1">
         <v>8</v>
       </c>
-      <c r="E37" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A37,5),D37))</f>
+      <c r="E38" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A38,5),D38))</f>
         <v>8</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="I38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O37" s="1" t="s">
+      <c r="L38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P37" t="str">
-        <f>CONCATENATE("typedef ",O37," ",LOWER(F37), "_",  SUBSTITUTE(LOWER(H37), " ", "_"),"(", I37,");")</f>
+      <c r="P38" t="str">
+        <f>CONCATENATE("typedef ",O38," ",LOWER(F38), "_",  SUBSTITUTE(LOWER(H38), " ", "_"),"(", I38,");")</f>
         <v>typedef void two_param_lms7002m_dir_int_num_iq(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="J38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38"/>
-    </row>
-    <row r="39" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="J39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39"/>
+    </row>
+    <row r="40" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>0</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D40" s="1">
         <v>9</v>
       </c>
-      <c r="E39" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A39,5),D39))</f>
+      <c r="E40" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A40,5),D40))</f>
         <v>9</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="I40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="1" t="s">
+      <c r="L40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P39" t="str">
-        <f>CONCATENATE("typedef ",O39," ",LOWER(F39), "_",  SUBSTITUTE(LOWER(H39), " ", "_"),"(", I39,");")</f>
+      <c r="P40" t="str">
+        <f>CONCATENATE("typedef ",O40," ",LOWER(F40), "_",  SUBSTITUTE(LOWER(H40), " ", "_"),"(", I40,");")</f>
         <v>typedef void ldo_enable_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="J40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40"/>
-    </row>
-    <row r="41" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41"/>
+    </row>
+    <row r="42" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>0</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>10</v>
       </c>
-      <c r="E41" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A41,5),D41))</f>
+      <c r="E42" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A42,5),D42))</f>
         <v>A</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" s="1" t="s">
+      <c r="I42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O41" s="1" t="s">
+      <c r="M42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P41" t="str">
-        <f>CONCATENATE("typedef ",O41," ",LOWER(F41), "_",  SUBSTITUTE(LOWER(H41), " ", "_"),"(", I41,");")</f>
+      <c r="P42" t="str">
+        <f>CONCATENATE("typedef ",O42," ",LOWER(F42), "_",  SUBSTITUTE(LOWER(H42), " ", "_"),"(", I42,");")</f>
         <v>typedef void afe_enable_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="J42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42"/>
-    </row>
-    <row r="43" spans="1:17" ht="125" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43"/>
+    </row>
+    <row r="44" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>0</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D44" s="1">
         <v>11</v>
       </c>
-      <c r="E43" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A43,5),D43))</f>
+      <c r="E44" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A44,5),D44))</f>
         <v>B</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J43" s="1" t="s">
+      <c r="I44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="M44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P43" t="str">
-        <f>CONCATENATE("typedef ",O43," ",LOWER(F43), "_",  SUBSTITUTE(LOWER(H43), " ", "_"),"(", I43,");")</f>
+      <c r="P44" t="str">
+        <f>CONCATENATE("typedef ",O44," ",LOWER(F44), "_",  SUBSTITUTE(LOWER(H44), " ", "_"),"(", I44,");")</f>
         <v>typedef int set_data_clock_num_sampling(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="J44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44"/>
-    </row>
-    <row r="45" spans="1:17" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45"/>
+    </row>
+    <row r="46" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>0</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D46" s="1">
         <v>12</v>
       </c>
-      <c r="E45" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A45,5),D45))</f>
+      <c r="E46" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A46,5),D46))</f>
         <v>C</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J45" s="1" t="s">
+      <c r="I46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O45" s="1" t="s">
+      <c r="M46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P45" t="str">
-        <f>CONCATENATE("typedef ",O45," ",LOWER(F45), "_",  SUBSTITUTE(LOWER(H45), " ", "_"),"(", I45,");")</f>
+      <c r="P46" t="str">
+        <f>CONCATENATE("typedef ",O46," ",LOWER(F46), "_",  SUBSTITUTE(LOWER(H46), " ", "_"),"(", I46,");")</f>
         <v>typedef void set_nco_freq_num_frequency_tunning(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="J46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46"/>
-    </row>
-    <row r="47" spans="1:17" ht="162.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="J47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47"/>
+    </row>
+    <row r="48" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>0</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D48" s="1">
         <v>13</v>
       </c>
-      <c r="E47" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A47,5),D47))</f>
+      <c r="E48" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A48,5),D48))</f>
         <v>D</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O47" s="1" t="s">
+      <c r="I48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P47" t="str">
-        <f>CONCATENATE("typedef ",O47," ",LOWER(F47), "_",  SUBSTITUTE(LOWER(H47), " ", "_"),"(", I47,");")</f>
+      <c r="P48" t="str">
+        <f>CONCATENATE("typedef ",O48," ",LOWER(F48), "_",  SUBSTITUTE(LOWER(H48), " ", "_"),"(", I48,");")</f>
         <v>typedef int set_gfir_taps_num_fir(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="J48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48"/>
-    </row>
-    <row r="49" spans="1:17" ht="125" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="J49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49"/>
+    </row>
+    <row r="50" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>0</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D50" s="1">
         <v>14</v>
       </c>
-      <c r="E49" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A49,5),D49))</f>
+      <c r="E50" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A50,5),D50))</f>
         <v>E</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J49" s="1" t="s">
+      <c r="I50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O49" s="1" t="s">
+      <c r="N50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P49" t="str">
-        <f>CONCATENATE("typedef ",O49," ",LOWER(F49), "_",  SUBSTITUTE(LOWER(H49), " ", "_"),"(", I49,");")</f>
+      <c r="P50" t="str">
+        <f>CONCATENATE("typedef ",O50," ",LOWER(F50), "_",  SUBSTITUTE(LOWER(H50), " ", "_"),"(", I50,");")</f>
         <v>typedef int set_lo_freq_num_frequency_tunning(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="J50" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N50" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50"/>
-    </row>
-    <row r="51" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="J51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51"/>
+    </row>
+    <row r="52" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>0</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="D51" s="1">
-        <v>15</v>
-      </c>
-      <c r="E51" s="1" t="str">
-        <f t="shared" ref="E51:E59" si="5">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A51,5),D51))</f>
-        <v>F</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P51" t="str">
-        <f t="shared" ref="P51:P59" si="6">CONCATENATE("typedef ",O51," ",LOWER(F51), "_",  SUBSTITUTE(LOWER(H51), " ", "_"),"(", I51,");")</f>
-        <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>1</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D52" s="1">
         <v>15</v>
       </c>
       <c r="E52" s="1" t="str">
+        <f t="shared" ref="E52:E60" si="5">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A52,5),D52))</f>
+        <v>F</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" ref="P52:P60" si="6">CONCATENATE("typedef ",O52," ",LOWER(F52), "_",  SUBSTITUTE(LOWER(H52), " ", "_"),"(", I52,");")</f>
+        <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="1">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1" t="str">
         <f t="shared" si="5"/>
         <v>2F</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P52" t="str">
-        <f t="shared" si="6"/>
-        <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>2</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="1">
-        <v>15</v>
-      </c>
-      <c r="E53" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>4F</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>142</v>
@@ -3649,22 +3656,22 @@
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D54" s="1">
         <v>15</v>
       </c>
       <c r="E54" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>6F</v>
+        <v>4F</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>142</v>
@@ -3701,22 +3708,22 @@
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="D55" s="1">
         <v>15</v>
       </c>
       <c r="E55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>8F</v>
+        <v>6F</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>142</v>
@@ -3753,22 +3760,22 @@
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="D56" s="1">
         <v>15</v>
       </c>
       <c r="E56" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>AF</v>
+        <v>8F</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>142</v>
@@ -3805,22 +3812,22 @@
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D57" s="1">
         <v>15</v>
       </c>
       <c r="E57" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>CF</v>
+        <v>AF</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>142</v>
@@ -3857,22 +3864,22 @@
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D58" s="1">
         <v>15</v>
       </c>
       <c r="E58" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>EF</v>
+        <v>CF</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>142</v>
@@ -3881,7 +3888,7 @@
         <v>143</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>30</v>
@@ -3906,25 +3913,25 @@
       </c>
       <c r="P58" t="str">
         <f t="shared" si="6"/>
-        <v>typedef void two_param_lms_const_bool_num_test(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+        <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D59" s="1">
         <v>15</v>
       </c>
       <c r="E59" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>10F</v>
+        <v>EF</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>142</v>
@@ -3933,7 +3940,7 @@
         <v>143</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>30</v>
@@ -3958,105 +3965,105 @@
       </c>
       <c r="P59" t="str">
         <f t="shared" si="6"/>
+        <v>typedef void two_param_lms_const_bool_num_test(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="1">
+        <v>15</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>10F</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="6"/>
         <v>typedef void two_param_lms_const_bool_num_enable(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="J60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60"/>
-    </row>
-    <row r="61" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="J61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61"/>
+    </row>
+    <row r="62" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>0</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D61" s="1">
-        <v>16</v>
-      </c>
-      <c r="E61" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A61,5),D61))</f>
-        <v>10</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P61" t="str">
-        <f>CONCATENATE("typedef ",O61," ",LOWER(F61), "_",  SUBSTITUTE(LOWER(H61), " ", "_"),"(", I61,");")</f>
-        <v>typedef void two_param_chant_sizet_num_sampling(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>1</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D62" s="1">
         <v>16</v>
       </c>
       <c r="E62" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A62,5),D62))</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>163</v>
@@ -4093,102 +4100,102 @@
         <v>typedef void two_param_chant_sizet_num_sampling(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="J63" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M63" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N63" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63"/>
-    </row>
-    <row r="64" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="63" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="1">
+        <v>16</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A63,5),D63))</f>
+        <v>30</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P63" t="str">
+        <f>CONCATENATE("typedef ",O63," ",LOWER(F63), "_",  SUBSTITUTE(LOWER(H63), " ", "_"),"(", I63,");")</f>
+        <v>typedef void two_param_chant_sizet_num_sampling(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="J64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64"/>
+    </row>
+    <row r="65" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>0</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D64" s="1">
-        <v>17</v>
-      </c>
-      <c r="E64" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A64,5),D64))</f>
-        <v>11</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P64" t="str">
-        <f>CONCATENATE("typedef ",O64," ",LOWER(F64), "_",  SUBSTITUTE(LOWER(H64), " ", "_"),"(", I64,");")</f>
-        <v>typedef void sp_tsg_num_iq(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>1</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D65" s="1">
         <v>17</v>
       </c>
       <c r="E65" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A65,5),D65))</f>
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>170</v>
@@ -4225,102 +4232,102 @@
         <v>typedef void sp_tsg_num_iq(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="J66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66"/>
-    </row>
-    <row r="67" spans="1:17" ht="50" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="66" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="1">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A66,5),D66))</f>
+        <v>31</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P66" t="str">
+        <f>CONCATENATE("typedef ",O66," ",LOWER(F66), "_",  SUBSTITUTE(LOWER(H66), " ", "_"),"(", I66,");")</f>
+        <v>typedef void sp_tsg_num_iq(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="J67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67"/>
+    </row>
+    <row r="68" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>0</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="D67" s="1">
-        <v>18</v>
-      </c>
-      <c r="E67" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A67,5),D67))</f>
-        <v>12</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P67" t="str">
-        <f>CONCATENATE("typedef ",O67," ",LOWER(F67), "_",  SUBSTITUTE(LOWER(H67), " ", "_"),"(", I67,");")</f>
-        <v>typedef void txstp_correction_num_calibrate(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="175" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>1</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="D68" s="1">
         <v>18</v>
       </c>
       <c r="E68" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A68,5),D68))</f>
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>176</v>
@@ -4357,102 +4364,102 @@
         <v>typedef void txstp_correction_num_calibrate(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="J69" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N69" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69"/>
-    </row>
-    <row r="70" spans="1:17" ht="50" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="69" spans="1:17" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="1">
+        <v>18</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A69,5),D69))</f>
+        <v>32</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P69" t="str">
+        <f>CONCATENATE("typedef ",O69," ",LOWER(F69), "_",  SUBSTITUTE(LOWER(H69), " ", "_"),"(", I69,");")</f>
+        <v>typedef void txstp_correction_num_calibrate(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="J70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70"/>
+    </row>
+    <row r="71" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>0</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="D70" s="1">
-        <v>19</v>
-      </c>
-      <c r="E70" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A70,5),D70))</f>
-        <v>13</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P70" t="str">
-        <f>CONCATENATE("typedef ",O70," ",LOWER(F70), "_",  SUBSTITUTE(LOWER(H70), " ", "_"),"(", I70,");")</f>
-        <v>typedef void rxtsp_num_calibrate(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="175" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>1</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D71" s="1">
         <v>19</v>
       </c>
       <c r="E71" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A71,5),D71))</f>
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>183</v>
@@ -4489,102 +4496,102 @@
         <v>typedef void rxtsp_num_calibrate(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="J72" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M72" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N72" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72"/>
-    </row>
-    <row r="73" spans="1:17" ht="100" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="72" spans="1:17" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="1">
+        <v>19</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A72,5),D72))</f>
+        <v>33</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P72" t="str">
+        <f>CONCATENATE("typedef ",O72," ",LOWER(F72), "_",  SUBSTITUTE(LOWER(H72), " ", "_"),"(", I72,");")</f>
+        <v>typedef void rxtsp_num_calibrate(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="J73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73"/>
+    </row>
+    <row r="74" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>0</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="D73" s="1">
-        <v>20</v>
-      </c>
-      <c r="E73" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A73,5),D73))</f>
-        <v>14</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P73" t="str">
-        <f>CONCATENATE("typedef ",O73," ",LOWER(F73), "_",  SUBSTITUTE(LOWER(H73), " ", "_"),"(", I73,");")</f>
-        <v>typedef void set_path_and_band_num_band(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>1</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="D74" s="1">
         <v>20</v>
       </c>
       <c r="E74" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A74,5),D74))</f>
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>191</v>
@@ -4593,7 +4600,7 @@
         <v>192</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>30</v>
@@ -4618,25 +4625,25 @@
       </c>
       <c r="P74" t="str">
         <f>CONCATENATE("typedef ",O74," ",LOWER(F74), "_",  SUBSTITUTE(LOWER(H74), " ", "_"),"(", I74,");")</f>
-        <v>typedef void set_path_and_band_num_test(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+        <v>typedef void set_path_and_band_num_band(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D75" s="1">
         <v>20</v>
       </c>
       <c r="E75" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A75,5),D75))</f>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>191</v>
@@ -4645,7 +4652,7 @@
         <v>192</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>30</v>
@@ -4670,25 +4677,25 @@
       </c>
       <c r="P75" t="str">
         <f>CONCATENATE("typedef ",O75," ",LOWER(F75), "_",  SUBSTITUTE(LOWER(H75), " ", "_"),"(", I75,");")</f>
-        <v>typedef void set_path_and_band_num_band(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+        <v>typedef void set_path_and_band_num_test(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D76" s="1">
         <v>20</v>
       </c>
       <c r="E76" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A76,5),D76))</f>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>191</v>
@@ -4725,22 +4732,22 @@
         <v>typedef void set_path_and_band_num_band(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D77" s="1">
         <v>20</v>
       </c>
       <c r="E77" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A77,5),D77))</f>
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>191</v>
@@ -4749,7 +4756,7 @@
         <v>192</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>30</v>
@@ -4774,185 +4781,185 @@
       </c>
       <c r="P77" t="str">
         <f>CONCATENATE("typedef ",O77," ",LOWER(F77), "_",  SUBSTITUTE(LOWER(H77), " ", "_"),"(", I77,");")</f>
+        <v>typedef void set_path_and_band_num_band(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>4</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="1">
+        <v>20</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A78,5),D78))</f>
+        <v>94</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P78" t="str">
+        <f>CONCATENATE("typedef ",O78," ",LOWER(F78), "_",  SUBSTITUTE(LOWER(H78), " ", "_"),"(", I78,");")</f>
         <v>typedef void set_path_and_band_num_enable_channel(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="78" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="J78" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L78" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M78" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N78" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78"/>
-    </row>
-    <row r="79" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="79" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="J79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79"/>
+    </row>
+    <row r="80" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>0</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D80" s="1">
         <v>21</v>
       </c>
-      <c r="E79" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A79,5),D79))</f>
+      <c r="E80" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A80,5),D80))</f>
         <v>15</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F80" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J79" s="3" t="s">
+      <c r="I80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M79" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O79" s="1" t="s">
+      <c r="M80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P79" t="str">
-        <f>CONCATENATE("typedef ",O79," ",LOWER(F79), "_",  SUBSTITUTE(LOWER(H79), " ", "_"),"(", I79,");")</f>
+      <c r="P80" t="str">
+        <f>CONCATENATE("typedef ",O80," ",LOWER(F80), "_",  SUBSTITUTE(LOWER(H80), " ", "_"),"(", I80,");")</f>
         <v>typedef void tbb_loop_back_enable_num_iq(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="80" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="J80" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M80" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N80" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80"/>
-    </row>
-    <row r="81" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row r="81" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="J81" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81"/>
+    </row>
+    <row r="82" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>0</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="D81" s="1">
-        <v>22</v>
-      </c>
-      <c r="E81" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A81,5),D81))</f>
-        <v>16</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P81" t="str">
-        <f>CONCATENATE("typedef ",O81," ",LOWER(F81), "_",  SUBSTITUTE(LOWER(H81), " ", "_"),"(", I81,");")</f>
-        <v>typedef int bb_filer_set_num_calibrate(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>1</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="D82" s="1">
         <v>22</v>
       </c>
       <c r="E82" s="1" t="str">
         <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A82,5),D82))</f>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>208</v>
@@ -4989,206 +4996,206 @@
         <v>typedef int bb_filer_set_num_calibrate(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="J83" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L83" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M83" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N83" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83"/>
-    </row>
-    <row r="84" spans="1:17" ht="50" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+    <row r="83" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D83" s="1">
+        <v>22</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A83,5),D83))</f>
+        <v>36</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P83" t="str">
+        <f>CONCATENATE("typedef ",O83," ",LOWER(F83), "_",  SUBSTITUTE(LOWER(H83), " ", "_"),"(", I83,");")</f>
+        <v>typedef int bb_filer_set_num_calibrate(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="J84" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N84" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84"/>
+    </row>
+    <row r="85" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>0</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="D84" s="1">
-        <v>23</v>
-      </c>
-      <c r="E84" s="1" t="str">
-        <f t="shared" ref="E84:E91" si="7">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A84,5),D84))</f>
-        <v>17</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P84" t="str">
-        <f t="shared" ref="P84:P91" si="8">CONCATENATE("typedef ",O84," ",LOWER(F84), "_",  SUBSTITUTE(LOWER(H84), " ", "_"),"(", I84,");")</f>
-        <v>typedef void trf_rbb_rfe_num_frequency_tunning(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="50" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>1</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="D85" s="1">
         <v>23</v>
       </c>
       <c r="E85" s="1" t="str">
+        <f t="shared" ref="E85:E92" si="7">DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A85,5),D85))</f>
+        <v>17</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" ref="P85:P92" si="8">CONCATENATE("typedef ",O85," ",LOWER(F85), "_",  SUBSTITUTE(LOWER(H85), " ", "_"),"(", I85,");")</f>
+        <v>typedef void trf_rbb_rfe_num_frequency_tunning(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D86" s="1">
+        <v>23</v>
+      </c>
+      <c r="E86" s="1" t="str">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F86" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G86" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I85" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J85" s="3" t="s">
+      <c r="I86" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J86" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L85" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O85" s="1" t="s">
+      <c r="L86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O86" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P85" t="str">
+      <c r="P86" t="str">
         <f t="shared" si="8"/>
         <v>typedef void trf_rbb_rfe_num_frequency_tunning(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="50" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="87" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>2</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B87" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D87" s="1">
         <v>23</v>
       </c>
-      <c r="E86" s="1" t="str">
+      <c r="E87" s="1" t="str">
         <f t="shared" si="7"/>
         <v>57</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P86" t="str">
-        <f t="shared" si="8"/>
-        <v>typedef double trf_rbb_rfe_num_gain(LMS7002M_t *);</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" ht="50" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>3</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D87" s="1">
-        <v>23</v>
-      </c>
-      <c r="E87" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>77</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>214</v>
@@ -5225,22 +5232,22 @@
         <v>typedef double trf_rbb_rfe_num_gain(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D88" s="1">
         <v>23</v>
       </c>
       <c r="E88" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>214</v>
@@ -5277,22 +5284,22 @@
         <v>typedef double trf_rbb_rfe_num_gain(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D89" s="1">
         <v>23</v>
       </c>
       <c r="E89" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>B7</v>
+        <v>97</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>214</v>
@@ -5329,22 +5336,22 @@
         <v>typedef double trf_rbb_rfe_num_gain(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D90" s="1">
         <v>23</v>
       </c>
       <c r="E90" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>D7</v>
+        <v>B7</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>214</v>
@@ -5381,22 +5388,22 @@
         <v>typedef double trf_rbb_rfe_num_gain(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D91" s="1">
         <v>23</v>
       </c>
       <c r="E91" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>F7</v>
+        <v>D7</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>214</v>
@@ -5433,116 +5440,168 @@
         <v>typedef double trf_rbb_rfe_num_gain(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="J92" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M92" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N92" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92"/>
-    </row>
-    <row r="93" spans="1:17" ht="50" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row r="92" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>7</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D92" s="1">
+        <v>23</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>F7</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="8"/>
+        <v>typedef double trf_rbb_rfe_num_gain(LMS7002M_t *);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="J93" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93"/>
+    </row>
+    <row r="94" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>0</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D93" s="1">
-        <v>24</v>
-      </c>
-      <c r="E93" s="1" t="str">
-        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A93,5),D93))</f>
+      <c r="D94" s="1">
+        <v>24</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f>DEC2HEX(_xlfn.BITOR(_xlfn.BITLSHIFT(A94,5),D94))</f>
         <v>18</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="G94" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I93" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J93" s="3" t="s">
+      <c r="I94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J94" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O93" s="1" t="s">
+      <c r="K94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O94" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P93" t="str">
-        <f>CONCATENATE("typedef ",O93," ",LOWER(F93), "_",  SUBSTITUTE(LOWER(H93), " ", "_"),"(", I93,");")</f>
+      <c r="P94" t="str">
+        <f>CONCATENATE("typedef ",O94," ",LOWER(F94), "_",  SUBSTITUTE(LOWER(H94), " ", "_"),"(", I94,");")</f>
         <v>typedef uint16_t readrssi_num_rssi(LMS7002M_t *);</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="J94" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L94" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M94" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N94" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94"/>
+    <row r="95" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="J95" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N95" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O94" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O95" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
